--- a/data/testing/evaluated_results.xlsx
+++ b/data/testing/evaluated_results.xlsx
@@ -703,38 +703,38 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.217566964512057E-4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0955005561939513</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0065564264732588945</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8590015175498147</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
+        <v>0.001762673868732095</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1955044277540914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006549819849583533</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8753625204154165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.122720076811246</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05439144483458631</v>
       </c>
     </row>
   </sheetData>
@@ -770,38 +770,38 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>7.498455286048336E-4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.09263614979214663</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.006970674945072991</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7296437851557577</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0</v>
+        <v>0.001762673868732095</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1955044277540914</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006549819849583533</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8753625204154165</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.122720076811246</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05439144483458631</v>
       </c>
     </row>
   </sheetData>
@@ -840,7 +840,7 @@
         <v>1.35697387262307E-4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.058382363612865</v>
+        <v>0.06239565271797728</v>
       </c>
     </row>
     <row r="3">
@@ -854,21 +854,21 @@
         <v>0.005796966100838763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1071808249620757</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1615213573747172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.8285924425187992</v>
+        <v>0.8422150960609847</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.166527937879157</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1009285001465726</v>
       </c>
     </row>
   </sheetData>
@@ -907,35 +907,35 @@
         <v>0.001149666525066006</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6646772387221547</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.007177956147793194</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12488684942329875</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0838015101143704</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1263735373584945</v>
+        <v>0.6814576711287972</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006962154428460408</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28550337400040016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.138657770471422</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.10371531816949794</v>
       </c>
     </row>
   </sheetData>
@@ -971,38 +971,38 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001115102366737332</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6845865211594544</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.007177956147793195</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.1004510944425637</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1154519629376369</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12747207642213382</v>
+        <v>0.001149666525066006</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6814576711287972</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006962154428460408</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28550337400040016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.138657770471422</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.10371531816949794</v>
       </c>
     </row>
   </sheetData>
@@ -1041,21 +1041,21 @@
         <v>0.001081577362819894</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5124304559754436</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.003450080551119006</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.18153131104319065</v>
+        <v>0.5145180052475125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.004404396649024679</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38431596858261574</v>
       </c>
     </row>
     <row r="4">
@@ -1069,7 +1069,7 @@
         <v>0.1566652972494203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28804581957027764</v>
+        <v>0.2024342725611079</v>
       </c>
     </row>
   </sheetData>
